--- a/medicine/Sexualité et sexologie/Comédie_érotique_italienne/Comédie_érotique_italienne.xlsx
+++ b/medicine/Sexualité et sexologie/Comédie_érotique_italienne/Comédie_érotique_italienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Com%C3%A9die_%C3%A9rotique_italienne</t>
+          <t>Comédie_érotique_italienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La comédie érotique italienne (commedia sexy all'italiana) est un sous-genre du cinéma italien qui se situe au carrefour entre la comédie humoristique paillarde et le film érotique, et dont l'âge d'or se situe dans les années 1970.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Com%C3%A9die_%C3%A9rotique_italienne</t>
+          <t>Comédie_érotique_italienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La comédie érotique à l'italienne suit une trame scénaristique simple plus ou moins répétitive : un protagoniste masculin, généralement maladroit et idiot (souvent incarné par des acteurs comme Alvaro Vitali, Lino Banfi ou Renzo Montagnani), tente d'attirer l'attention et d'obtenir les faveurs de l'héroïne, qui est invariablement une femme à moitié dénudée (comme Edwige Fenech, Serena Grandi, Carmen Russo ou encore Laura Antonelli). L'action se déroule souvent dans des casernes militaires, des écoles ou des hôpitaux.
 Le nom des mêmes réalisateurs reviennent souvent et ils collaborent parfois dans les différentes productions : Michele Massimo Tarantini, Nando Cicero, Mariano Laurenti, Giuliano Carnimeo.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Com%C3%A9die_%C3%A9rotique_italienne</t>
+          <t>Comédie_érotique_italienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Années 1960
-1966 : Les Ogresses
-1968 : L'Amour à cheval (La matriarca) de Pasquale Festa Campanile
-Années 1970
-1970 : Quand les femmes avaient une queue (Quando le donne persero la coda) de Pasquale Festa Campanile
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1966 : Les Ogresses
+1968 : L'Amour à cheval (La matriarca) de Pasquale Festa Campanile</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Comédie_érotique_italienne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Com%C3%A9die_%C3%A9rotique_italienne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie partielle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1970 : Quand les femmes avaient une queue (Quando le donne persero la coda) de Pasquale Festa Campanile
 1971 : Ma femme est un violon (Il merlo maschio) de Pasquale Festa Campanile
 1972 : Les Mille et Une Nuits érotiques (Finalmente... le mille e una notte) d'Antonio Margheriti
 1972 : La toubib se recycle (Taxi Girl) de Michele Massimo Tarantini
@@ -578,9 +631,43 @@
 1979 : L'Infirmière du régiment (L'infermiera nella corsia dei militari, L'Infirmière de l'hosto du régiment) de Mariano Laurenti
 1979 : La lycéenne est dans les vaps (La liceale, il diavolo e l'acquasanta) de Nando Cicero
 1979 : La Flic à la police des mœurs (La poliziotta della squadra del buon costume) de Michele Massimo Tarantini
-1979 : Samedi, dimanche, vendredi (Sabato, domenica e venerdì) de Sergio Martino, Pasquale Festa Campanile, Castellano et Pipolo
-Années 1980
-1980 : Trois dans un lit (Tre sotto il lenzuolo) de Michele Massimo Tarantini
+1979 : Samedi, dimanche, vendredi (Sabato, domenica e venerdì) de Sergio Martino, Pasquale Festa Campanile, Castellano et Pipolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comédie_érotique_italienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Com%C3%A9die_%C3%A9rotique_italienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie partielle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1980 : Trois dans un lit (Tre sotto il lenzuolo) de Michele Massimo Tarantini
 1980 : L’infirmière a le bistouri facile (La dottoressa ci sta col colonnello) de Michele Massimo Tarantini
 1980 : La lycéenne séduit ses professeurs (La liceale seduce i professori) de Mariano Laurenti
 1980 : Les Zizis baladeurs (La moglie in vacanza... l'amante in città) de Sergio Martino
